--- a/back-end/test/sample-learn.xlsx
+++ b/back-end/test/sample-learn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16785" windowHeight="8835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="skills" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/back-end/test/sample-learn.xlsx
+++ b/back-end/test/sample-learn.xlsx
@@ -415,14 +415,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -481,14 +482,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
@@ -536,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -559,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>

--- a/back-end/test/sample-learn.xlsx
+++ b/back-end/test/sample-learn.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\VueJS\back-end\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/www/VueJS/back-end/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868BF0C-A302-D64C-864D-3EF9D25421B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="5760"/>
+    <workbookView xWindow="14620" yWindow="31720" windowWidth="19060" windowHeight="11360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="skills" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +96,21 @@
   </si>
   <si>
     <t>tiếp viên</t>
+  </si>
+  <si>
+    <t>How do you say "tree"</t>
+  </si>
+  <si>
+    <t>How do you say "air-plane"</t>
+  </si>
+  <si>
+    <t>cái cây</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,23 +421,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -458,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -478,23 +488,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -549,7 +559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -569,6 +579,52 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -578,22 +634,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +666,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -618,7 +677,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -626,7 +688,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
@@ -634,7 +699,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
@@ -642,7 +710,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -650,12 +721,81 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
